--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe cost management in Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe cost management in Azure.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4CBE1C-86D3-44BE-AE95-7BF1513A3B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4FEDE-D6A4-4008-8786-35E3FB170E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="17460" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="affect costs in Azure" sheetId="1" r:id="rId1"/>
@@ -519,6 +519,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>474438</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D12FB0-9C2A-0A96-B0A4-47EF5020C690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16573500"/>
+          <a:ext cx="14495238" cy="2161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>150628</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>18762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B07BC94-F1B9-605C-EDB1-45F8EE021508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19050000"/>
+          <a:ext cx="14171428" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83962</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90866FB-465B-4734-8EB6-673198AA7695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21526500"/>
+          <a:ext cx="14104762" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475276</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>104429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B7321-E5B6-FA57-8B58-86C7F98195F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24193500"/>
+          <a:ext cx="7790476" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -787,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1036,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe cost management in Azure.xlsx
+++ b/Brain/Azure/Microsoft Azure Fundamentals/Describe Azure management and governance/Describe cost management in Azure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4FEDE-D6A4-4008-8786-35E3FB170E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244D40E3-D87A-4339-BE09-74D088639CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17460" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="affect costs in Azure" sheetId="1" r:id="rId1"/>
@@ -695,6 +695,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36800</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7BCAF2-CB0D-FE3C-9F4C-A804B853E414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27241500"/>
+          <a:ext cx="10400000" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532419</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>47095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E1BD04-F522-B408-3CE7-72FB28D148F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29908500"/>
+          <a:ext cx="7847619" cy="4238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1212,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
